--- a/Planning/chapter_1_sprint.xlsx
+++ b/Planning/chapter_1_sprint.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Jeff\UnityProjects\journey\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85D80A3-1E3D-403F-8994-792A485388EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883ED9B5-E147-4E7D-B4C4-625DBE004FFF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{01D23D36-369B-4BEE-9D83-54B753740F81}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{01D23D36-369B-4BEE-9D83-54B753740F81}"/>
   </bookViews>
   <sheets>
     <sheet name="overview" sheetId="1" r:id="rId1"/>
@@ -21,10 +21,9 @@
     <sheet name="dialog tasks" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">bugs!$A$1:$D$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">bugs!$A$1:$D$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="84">
   <si>
     <t>background image</t>
   </si>
@@ -292,6 +291,9 @@
   </si>
   <si>
     <t>7 - release testing</t>
+  </si>
+  <si>
+    <t>picking up boxes stops working if you carry a box to a different level; also happens when you die during carry.</t>
   </si>
 </sst>
 </file>
@@ -350,7 +352,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -399,6 +401,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -435,13 +443,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -451,16 +463,12 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1259,8 +1267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD6A92DC-2CE6-4761-9D01-469062FFD0DE}">
   <dimension ref="A1:BD12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1273,76 +1281,76 @@
       <c r="A1" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="14" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="15" t="s">
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="17" t="s">
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="18" t="s">
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="18"/>
-      <c r="AH1" s="18"/>
-      <c r="AI1" s="18"/>
-      <c r="AJ1" s="11" t="s">
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="12"/>
+      <c r="AJ1" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="AK1" s="11"/>
-      <c r="AL1" s="11"/>
-      <c r="AM1" s="11"/>
-      <c r="AN1" s="11"/>
-      <c r="AO1" s="11"/>
-      <c r="AP1" s="11"/>
-      <c r="AQ1" s="18" t="s">
+      <c r="AK1" s="14"/>
+      <c r="AL1" s="14"/>
+      <c r="AM1" s="14"/>
+      <c r="AN1" s="14"/>
+      <c r="AO1" s="14"/>
+      <c r="AP1" s="14"/>
+      <c r="AQ1" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="AR1" s="18"/>
-      <c r="AS1" s="18"/>
-      <c r="AT1" s="18"/>
-      <c r="AU1" s="18"/>
-      <c r="AV1" s="18"/>
-      <c r="AW1" s="18"/>
-      <c r="AX1" s="16" t="s">
+      <c r="AR1" s="12"/>
+      <c r="AS1" s="12"/>
+      <c r="AT1" s="12"/>
+      <c r="AU1" s="12"/>
+      <c r="AV1" s="12"/>
+      <c r="AW1" s="12"/>
+      <c r="AX1" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="AY1" s="16"/>
-      <c r="AZ1" s="16"/>
-      <c r="BA1" s="16"/>
-      <c r="BB1" s="16"/>
-      <c r="BC1" s="19" t="s">
+      <c r="AY1" s="13"/>
+      <c r="AZ1" s="13"/>
+      <c r="BA1" s="13"/>
+      <c r="BB1" s="13"/>
+      <c r="BC1" s="11" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1852,39 +1860,39 @@
       <c r="A5" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="10"/>
+      <c r="C5" s="19"/>
     </row>
     <row r="6" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>77</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>78</v>
       </c>
-      <c r="L8" s="12" t="s">
+      <c r="L8" s="10" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1892,72 +1900,72 @@
       <c r="A9" t="s">
         <v>79</v>
       </c>
-      <c r="M9" s="11" t="s">
+      <c r="M9" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="11"/>
-      <c r="AA9" s="11"/>
-      <c r="AB9" s="11"/>
-      <c r="AC9" s="11"/>
-      <c r="AD9" s="11"/>
-      <c r="AE9" s="11"/>
-      <c r="AF9" s="11"/>
-      <c r="AG9" s="11"/>
-      <c r="AH9" s="11"/>
-      <c r="AI9" s="11"/>
-      <c r="AJ9" s="11"/>
-      <c r="AK9" s="11"/>
-      <c r="AL9" s="11"/>
-      <c r="AM9" s="11"/>
-      <c r="AN9" s="11"/>
-      <c r="AO9" s="11"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="14"/>
+      <c r="AE9" s="14"/>
+      <c r="AF9" s="14"/>
+      <c r="AG9" s="14"/>
+      <c r="AH9" s="14"/>
+      <c r="AI9" s="14"/>
+      <c r="AJ9" s="14"/>
+      <c r="AK9" s="14"/>
+      <c r="AL9" s="14"/>
+      <c r="AM9" s="14"/>
+      <c r="AN9" s="14"/>
+      <c r="AO9" s="14"/>
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>80</v>
       </c>
-      <c r="AP10" s="11" t="s">
+      <c r="AP10" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="AQ10" s="11"/>
+      <c r="AQ10" s="14"/>
     </row>
     <row r="11" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>81</v>
       </c>
-      <c r="AR11" s="11" t="s">
+      <c r="AR11" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="AS11" s="11"/>
-      <c r="AT11" s="11"/>
-      <c r="AU11" s="11"/>
-      <c r="AV11" s="11"/>
-      <c r="AW11" s="11"/>
-      <c r="AX11" s="11"/>
-      <c r="AY11" s="11"/>
-      <c r="AZ11" s="11"/>
-      <c r="BA11" s="11"/>
+      <c r="AS11" s="14"/>
+      <c r="AT11" s="14"/>
+      <c r="AU11" s="14"/>
+      <c r="AV11" s="14"/>
+      <c r="AW11" s="14"/>
+      <c r="AX11" s="14"/>
+      <c r="AY11" s="14"/>
+      <c r="AZ11" s="14"/>
+      <c r="BA11" s="14"/>
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>82</v>
       </c>
-      <c r="BB12" s="19" t="s">
+      <c r="BB12" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="BC12" s="19"/>
+      <c r="BC12" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -1985,7 +1993,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2044,10 +2052,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088C03E8-59AF-44D1-862E-79A089A5A5D7}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2112,9 +2120,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>30</v>
@@ -2123,26 +2131,26 @@
         <v>34</v>
       </c>
       <c r="D5" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D6" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>33</v>
@@ -2156,7 +2164,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>33</v>
@@ -2165,13 +2173,27 @@
         <v>34</v>
       </c>
       <c r="D8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="4">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D8" xr:uid="{5B428F76-2F32-4A26-8341-B2DE59C7D1C6}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D8">
-      <sortCondition ref="B1:B8"/>
+  <autoFilter ref="A1:D9" xr:uid="{5B428F76-2F32-4A26-8341-B2DE59C7D1C6}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D9">
+      <sortCondition ref="B1:B9"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2361,7 +2383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E564840-F180-4A7F-B5D1-6353AB9420BC}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>

--- a/Planning/chapter_1_sprint.xlsx
+++ b/Planning/chapter_1_sprint.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Jeff\UnityProjects\journey\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883ED9B5-E147-4E7D-B4C4-625DBE004FFF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23EFB80D-1E08-4A96-8C5C-D72E557A646B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{01D23D36-369B-4BEE-9D83-54B753740F81}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{01D23D36-369B-4BEE-9D83-54B753740F81}"/>
   </bookViews>
   <sheets>
     <sheet name="overview" sheetId="1" r:id="rId1"/>
@@ -352,7 +352,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -407,6 +407,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -420,7 +426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -469,6 +475,14 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1268,7 +1282,7 @@
   <dimension ref="A1:BD12"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1869,11 +1883,11 @@
       <c r="A6" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1993,7 +2007,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2018,30 +2032,30 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="22">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="22">
         <v>3</v>
       </c>
     </row>
@@ -2054,8 +2068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088C03E8-59AF-44D1-862E-79A089A5A5D7}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2078,17 +2092,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="22">
         <v>2</v>
       </c>
     </row>
@@ -2106,17 +2120,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="22">
         <v>3</v>
       </c>
     </row>
@@ -2383,7 +2397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E564840-F180-4A7F-B5D1-6353AB9420BC}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>

--- a/Planning/chapter_1_sprint.xlsx
+++ b/Planning/chapter_1_sprint.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Jeff\UnityProjects\journey\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23EFB80D-1E08-4A96-8C5C-D72E557A646B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54477B97-E7D6-44D0-BA7B-65158CB581D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{01D23D36-369B-4BEE-9D83-54B753740F81}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{01D23D36-369B-4BEE-9D83-54B753740F81}"/>
   </bookViews>
   <sheets>
     <sheet name="overview" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="dialog tasks" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">bugs!$A$1:$D$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">bugs!$A$1:$D$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="88">
   <si>
     <t>background image</t>
   </si>
@@ -294,6 +294,18 @@
   </si>
   <si>
     <t>picking up boxes stops working if you carry a box to a different level; also happens when you die during carry.</t>
+  </si>
+  <si>
+    <t>resetting destructible doors</t>
+  </si>
+  <si>
+    <t>throwing guide disappeared</t>
+  </si>
+  <si>
+    <t>boxes can still disappear completely through floor</t>
+  </si>
+  <si>
+    <t>scrap doesn't always collect like it should (sometimes not collected, sometimes collected twice)</t>
   </si>
 </sst>
 </file>
@@ -352,7 +364,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -413,6 +425,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -426,7 +444,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -449,8 +467,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -478,11 +500,13 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1281,8 +1305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD6A92DC-2CE6-4761-9D01-469062FFD0DE}">
   <dimension ref="A1:BD12"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="X30" sqref="X30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1295,76 +1319,76 @@
       <c r="A1" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="16" t="s">
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="17" t="s">
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="18" t="s">
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="12" t="s">
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="AD1" s="12"/>
-      <c r="AE1" s="12"/>
-      <c r="AF1" s="12"/>
-      <c r="AG1" s="12"/>
-      <c r="AH1" s="12"/>
-      <c r="AI1" s="12"/>
-      <c r="AJ1" s="14" t="s">
+      <c r="AD1" s="14"/>
+      <c r="AE1" s="14"/>
+      <c r="AF1" s="14"/>
+      <c r="AG1" s="14"/>
+      <c r="AH1" s="14"/>
+      <c r="AI1" s="14"/>
+      <c r="AJ1" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="AK1" s="14"/>
-      <c r="AL1" s="14"/>
-      <c r="AM1" s="14"/>
-      <c r="AN1" s="14"/>
-      <c r="AO1" s="14"/>
-      <c r="AP1" s="14"/>
-      <c r="AQ1" s="12" t="s">
+      <c r="AK1" s="16"/>
+      <c r="AL1" s="16"/>
+      <c r="AM1" s="16"/>
+      <c r="AN1" s="16"/>
+      <c r="AO1" s="16"/>
+      <c r="AP1" s="16"/>
+      <c r="AQ1" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="AR1" s="12"/>
-      <c r="AS1" s="12"/>
-      <c r="AT1" s="12"/>
-      <c r="AU1" s="12"/>
-      <c r="AV1" s="12"/>
-      <c r="AW1" s="12"/>
-      <c r="AX1" s="13" t="s">
+      <c r="AR1" s="14"/>
+      <c r="AS1" s="14"/>
+      <c r="AT1" s="14"/>
+      <c r="AU1" s="14"/>
+      <c r="AV1" s="14"/>
+      <c r="AW1" s="14"/>
+      <c r="AX1" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="AY1" s="13"/>
-      <c r="AZ1" s="13"/>
-      <c r="BA1" s="13"/>
-      <c r="BB1" s="13"/>
-      <c r="BC1" s="11" t="s">
+      <c r="AY1" s="15"/>
+      <c r="AZ1" s="15"/>
+      <c r="BA1" s="15"/>
+      <c r="BB1" s="15"/>
+      <c r="BC1" s="10" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1874,112 +1898,120 @@
       <c r="A5" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="19"/>
+      <c r="C5" s="21"/>
     </row>
     <row r="6" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>77</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>78</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="L8" s="27" t="s">
         <v>60</v>
       </c>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="23"/>
+      <c r="X8" s="23"/>
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="23"/>
+      <c r="AA8" s="23"/>
     </row>
     <row r="9" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>79</v>
       </c>
-      <c r="M9" s="14" t="s">
+      <c r="M9" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="14"/>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="14"/>
-      <c r="AC9" s="14"/>
-      <c r="AD9" s="14"/>
-      <c r="AE9" s="14"/>
-      <c r="AF9" s="14"/>
-      <c r="AG9" s="14"/>
-      <c r="AH9" s="14"/>
-      <c r="AI9" s="14"/>
-      <c r="AJ9" s="14"/>
-      <c r="AK9" s="14"/>
-      <c r="AL9" s="14"/>
-      <c r="AM9" s="14"/>
-      <c r="AN9" s="14"/>
-      <c r="AO9" s="14"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="16"/>
+      <c r="AD9" s="16"/>
+      <c r="AE9" s="16"/>
+      <c r="AF9" s="16"/>
+      <c r="AG9" s="16"/>
+      <c r="AH9" s="16"/>
+      <c r="AI9" s="16"/>
+      <c r="AJ9" s="16"/>
+      <c r="AK9" s="16"/>
+      <c r="AL9" s="16"/>
+      <c r="AM9" s="16"/>
+      <c r="AN9" s="16"/>
+      <c r="AO9" s="16"/>
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>80</v>
       </c>
-      <c r="AP10" s="14" t="s">
+      <c r="AP10" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="AQ10" s="14"/>
+      <c r="AQ10" s="16"/>
     </row>
     <row r="11" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>81</v>
       </c>
-      <c r="AR11" s="14" t="s">
+      <c r="AR11" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="AS11" s="14"/>
-      <c r="AT11" s="14"/>
-      <c r="AU11" s="14"/>
-      <c r="AV11" s="14"/>
-      <c r="AW11" s="14"/>
-      <c r="AX11" s="14"/>
-      <c r="AY11" s="14"/>
-      <c r="AZ11" s="14"/>
-      <c r="BA11" s="14"/>
+      <c r="AS11" s="16"/>
+      <c r="AT11" s="16"/>
+      <c r="AU11" s="16"/>
+      <c r="AV11" s="16"/>
+      <c r="AW11" s="16"/>
+      <c r="AX11" s="16"/>
+      <c r="AY11" s="16"/>
+      <c r="AZ11" s="16"/>
+      <c r="BA11" s="16"/>
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>82</v>
       </c>
-      <c r="BB12" s="11" t="s">
+      <c r="BB12" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="BC12" s="11"/>
+      <c r="BC12" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2032,30 +2064,30 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="22" t="s">
+      <c r="B2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="22">
+      <c r="D2" s="12">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="12">
         <v>3</v>
       </c>
     </row>
@@ -2066,10 +2098,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088C03E8-59AF-44D1-862E-79A089A5A5D7}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A14:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2092,107 +2124,107 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="22" t="s">
+      <c r="B2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="22">
+      <c r="D2" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+    <row r="4" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="22" t="s">
+      <c r="B5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="D5" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D8" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>33</v>
@@ -2201,13 +2233,41 @@
         <v>34</v>
       </c>
       <c r="D9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="4">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D9" xr:uid="{5B428F76-2F32-4A26-8341-B2DE59C7D1C6}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D9">
-      <sortCondition ref="B1:B9"/>
+  <autoFilter ref="A1:D11" xr:uid="{5B428F76-2F32-4A26-8341-B2DE59C7D1C6}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D11">
+      <sortCondition ref="B1:B11"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2216,175 +2276,206 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B74B2B-D0AE-437C-81D6-82C84D99124F}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.7109375" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="54.7109375" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="C2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4">
+      <c r="E2" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="C3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="E3" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="C4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="4">
+      <c r="E4" s="4">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="C5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="4">
+      <c r="E5" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="C6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="4">
+      <c r="E6" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="C7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="4">
+      <c r="E7" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="C8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="4">
+      <c r="E8" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="C9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="4">
+      <c r="E9" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="C10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="4">
+      <c r="E10" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="C11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="4">
+      <c r="E11" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D12">
-        <f>SUM(D2:D11)</f>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <f>SUM(E2:E11)</f>
         <v>91</v>
       </c>
     </row>

--- a/Planning/chapter_1_sprint.xlsx
+++ b/Planning/chapter_1_sprint.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Jeff\UnityProjects\journey\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54477B97-E7D6-44D0-BA7B-65158CB581D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E665D33-C702-4612-8140-CCF393D039B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{01D23D36-369B-4BEE-9D83-54B753740F81}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="89">
   <si>
     <t>background image</t>
   </si>
@@ -266,9 +266,6 @@
     <t>final playtest</t>
   </si>
   <si>
-    <t>alpha</t>
-  </si>
-  <si>
     <t>Phases</t>
   </si>
   <si>
@@ -306,6 +303,12 @@
   </si>
   <si>
     <t>scrap doesn't always collect like it should (sometimes not collected, sometimes collected twice)</t>
+  </si>
+  <si>
+    <t>Apartment Hunting</t>
+  </si>
+  <si>
+    <t>week 10</t>
   </si>
 </sst>
 </file>
@@ -444,7 +447,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -473,22 +476,39 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -500,13 +520,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1303,96 +1316,107 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD6A92DC-2CE6-4761-9D01-469062FFD0DE}">
-  <dimension ref="A1:BD12"/>
+  <dimension ref="A1:BJ20"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="X30" sqref="X30"/>
+    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.140625" customWidth="1"/>
-    <col min="3" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="7.7109375" customWidth="1"/>
+    <col min="14" max="14" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="62" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="18" t="s">
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="19" t="s">
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="20" t="s">
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="14" t="s">
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="AD1" s="14"/>
-      <c r="AE1" s="14"/>
-      <c r="AF1" s="14"/>
-      <c r="AG1" s="14"/>
-      <c r="AH1" s="14"/>
-      <c r="AI1" s="14"/>
-      <c r="AJ1" s="16" t="s">
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="26"/>
+      <c r="AJ1" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="AK1" s="16"/>
-      <c r="AL1" s="16"/>
-      <c r="AM1" s="16"/>
-      <c r="AN1" s="16"/>
-      <c r="AO1" s="16"/>
-      <c r="AP1" s="16"/>
-      <c r="AQ1" s="14" t="s">
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
+      <c r="AO1" s="22"/>
+      <c r="AP1" s="22"/>
+      <c r="AQ1" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="AR1" s="14"/>
-      <c r="AS1" s="14"/>
-      <c r="AT1" s="14"/>
-      <c r="AU1" s="14"/>
-      <c r="AV1" s="14"/>
-      <c r="AW1" s="14"/>
-      <c r="AX1" s="15" t="s">
+      <c r="AR1" s="26"/>
+      <c r="AS1" s="26"/>
+      <c r="AT1" s="26"/>
+      <c r="AU1" s="26"/>
+      <c r="AV1" s="26"/>
+      <c r="AW1" s="26"/>
+      <c r="AX1" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="AY1" s="15"/>
-      <c r="AZ1" s="15"/>
-      <c r="BA1" s="15"/>
-      <c r="BB1" s="15"/>
-      <c r="BC1" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="AY1" s="24"/>
+      <c r="AZ1" s="24"/>
+      <c r="BA1" s="24"/>
+      <c r="BB1" s="24"/>
+      <c r="BC1" s="24"/>
+      <c r="BD1" s="24"/>
+      <c r="BE1" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="BF1" s="25"/>
+      <c r="BG1" s="25"/>
+      <c r="BH1" s="25"/>
+      <c r="BI1" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="BJ1" s="21"/>
+    </row>
+    <row r="2" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -1558,8 +1582,29 @@
       <c r="BC2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="3" spans="1:56" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BD2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>48</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>52</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:62" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>57</v>
       </c>
@@ -1725,9 +1770,29 @@
       <c r="BC3" s="8">
         <v>44289</v>
       </c>
-      <c r="BD3" s="8"/>
-    </row>
-    <row r="4" spans="1:56" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BD3" s="8">
+        <v>44290</v>
+      </c>
+      <c r="BE3" s="8">
+        <v>44291</v>
+      </c>
+      <c r="BF3" s="8">
+        <v>44292</v>
+      </c>
+      <c r="BG3" s="8">
+        <v>44293</v>
+      </c>
+      <c r="BH3" s="8">
+        <v>44294</v>
+      </c>
+      <c r="BI3" s="8">
+        <v>44295</v>
+      </c>
+      <c r="BJ3" s="8">
+        <v>44296</v>
+      </c>
+    </row>
+    <row r="4" spans="1:62" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>55</v>
       </c>
@@ -1786,28 +1851,28 @@
         <v>3</v>
       </c>
       <c r="T4" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="U4" s="7">
         <v>0</v>
       </c>
       <c r="V4" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W4" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X4" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="7">
         <v>0</v>
@@ -1893,47 +1958,70 @@
       <c r="BC4" s="7">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BD4" s="7">
+        <v>0</v>
+      </c>
+      <c r="BE4" s="7">
+        <v>3</v>
+      </c>
+      <c r="BF4" s="7">
+        <v>3</v>
+      </c>
+      <c r="BG4" s="7">
+        <v>3</v>
+      </c>
+      <c r="BH4" s="7">
+        <v>3</v>
+      </c>
+      <c r="BI4" s="7">
+        <v>3</v>
+      </c>
+      <c r="BJ4" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="30"/>
+    </row>
+    <row r="6" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="21"/>
-    </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="D6" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+    </row>
+    <row r="7" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-    </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="F7" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+    </row>
+    <row r="8" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>77</v>
       </c>
-      <c r="F7" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-    </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>78</v>
-      </c>
-      <c r="L8" s="27" t="s">
+      <c r="L8" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="T8" s="23"/>
+      <c r="T8" s="23" t="s">
+        <v>87</v>
+      </c>
       <c r="U8" s="23"/>
       <c r="V8" s="23"/>
       <c r="W8" s="23"/>
@@ -1942,93 +2030,151 @@
       <c r="Z8" s="23"/>
       <c r="AA8" s="23"/>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>78</v>
+      </c>
+      <c r="M9" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="22"/>
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="22"/>
+      <c r="AD9" s="22"/>
+      <c r="AE9" s="22"/>
+      <c r="AF9" s="22"/>
+      <c r="AG9" s="22"/>
+      <c r="AH9" s="22"/>
+      <c r="AI9" s="22"/>
+      <c r="AJ9" s="22"/>
+      <c r="AK9" s="22"/>
+      <c r="AL9" s="22"/>
+      <c r="AM9" s="22"/>
+      <c r="AN9" s="22"/>
+      <c r="AO9" s="22"/>
+      <c r="AP9" s="22"/>
+      <c r="AQ9" s="22"/>
+      <c r="AR9" s="22"/>
+      <c r="AS9" s="22"/>
+      <c r="AT9" s="22"/>
+      <c r="AU9" s="22"/>
+      <c r="AV9" s="22"/>
+    </row>
+    <row r="10" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>79</v>
       </c>
-      <c r="M9" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="16"/>
-      <c r="AA9" s="16"/>
-      <c r="AB9" s="16"/>
-      <c r="AC9" s="16"/>
-      <c r="AD9" s="16"/>
-      <c r="AE9" s="16"/>
-      <c r="AF9" s="16"/>
-      <c r="AG9" s="16"/>
-      <c r="AH9" s="16"/>
-      <c r="AI9" s="16"/>
-      <c r="AJ9" s="16"/>
-      <c r="AK9" s="16"/>
-      <c r="AL9" s="16"/>
-      <c r="AM9" s="16"/>
-      <c r="AN9" s="16"/>
-      <c r="AO9" s="16"/>
-    </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="AW10" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX10" s="22"/>
+    </row>
+    <row r="11" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>80</v>
       </c>
-      <c r="AP10" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="AQ10" s="16"/>
-    </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="AY11" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ11" s="22"/>
+      <c r="BA11" s="22"/>
+      <c r="BB11" s="22"/>
+      <c r="BC11" s="22"/>
+      <c r="BD11" s="22"/>
+      <c r="BE11" s="22"/>
+      <c r="BF11" s="22"/>
+      <c r="BG11" s="22"/>
+      <c r="BH11" s="22"/>
+    </row>
+    <row r="12" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>81</v>
       </c>
-      <c r="AR11" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="AS11" s="16"/>
-      <c r="AT11" s="16"/>
-      <c r="AU11" s="16"/>
-      <c r="AV11" s="16"/>
-      <c r="AW11" s="16"/>
-      <c r="AX11" s="16"/>
-      <c r="AY11" s="16"/>
-      <c r="AZ11" s="16"/>
-      <c r="BA11" s="16"/>
-    </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>82</v>
-      </c>
-      <c r="BB12" s="10" t="s">
+      <c r="BI12" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="BC12" s="10"/>
+      <c r="BJ12" s="10"/>
+    </row>
+    <row r="18" spans="42:55" x14ac:dyDescent="0.25">
+      <c r="AP18" s="18"/>
+      <c r="AQ18" s="18"/>
+      <c r="AR18" s="16"/>
+      <c r="AS18" s="16"/>
+      <c r="AT18" s="16"/>
+      <c r="AU18" s="16"/>
+      <c r="AV18" s="16"/>
+      <c r="AW18" s="16"/>
+      <c r="AX18" s="16"/>
+      <c r="AY18" s="16"/>
+      <c r="AZ18" s="16"/>
+      <c r="BA18" s="16"/>
+      <c r="BB18" s="16"/>
+      <c r="BC18" s="16"/>
+    </row>
+    <row r="19" spans="42:55" x14ac:dyDescent="0.25">
+      <c r="AP19" s="16"/>
+      <c r="AQ19" s="16"/>
+      <c r="AR19" s="18"/>
+      <c r="AS19" s="18"/>
+      <c r="AT19" s="18"/>
+      <c r="AU19" s="18"/>
+      <c r="AV19" s="18"/>
+      <c r="AW19" s="18"/>
+      <c r="AX19" s="18"/>
+      <c r="AY19" s="18"/>
+      <c r="AZ19" s="18"/>
+      <c r="BA19" s="18"/>
+      <c r="BB19" s="16"/>
+      <c r="BC19" s="16"/>
+    </row>
+    <row r="20" spans="42:55" x14ac:dyDescent="0.25">
+      <c r="AP20" s="16"/>
+      <c r="AQ20" s="16"/>
+      <c r="AR20" s="16"/>
+      <c r="AS20" s="16"/>
+      <c r="AT20" s="16"/>
+      <c r="AU20" s="16"/>
+      <c r="AV20" s="16"/>
+      <c r="AW20" s="16"/>
+      <c r="AX20" s="16"/>
+      <c r="AY20" s="16"/>
+      <c r="AZ20" s="16"/>
+      <c r="BA20" s="16"/>
+      <c r="BB20" s="16"/>
+      <c r="BC20" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="AQ1:AW1"/>
-    <mergeCell ref="AX1:BB1"/>
-    <mergeCell ref="AR11:BA11"/>
+  <mergeCells count="17">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="F7:K7"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="H1:N1"/>
     <mergeCell ref="O1:U1"/>
     <mergeCell ref="V1:AB1"/>
     <mergeCell ref="AC1:AI1"/>
+    <mergeCell ref="BI1:BJ1"/>
+    <mergeCell ref="M9:AV9"/>
+    <mergeCell ref="AW10:AX10"/>
+    <mergeCell ref="AY11:BH11"/>
+    <mergeCell ref="T8:AA8"/>
+    <mergeCell ref="AX1:BD1"/>
+    <mergeCell ref="BE1:BH1"/>
+    <mergeCell ref="AQ1:AW1"/>
     <mergeCell ref="AJ1:AP1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="M9:AO9"/>
-    <mergeCell ref="AP10:AQ10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2039,7 +2185,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="A3:D3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2154,7 +2300,7 @@
     </row>
     <row r="4" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>30</v>
@@ -2182,7 +2328,7 @@
     </row>
     <row r="6" spans="1:4" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>30</v>
@@ -2194,23 +2340,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="25" t="s">
+    <row r="7" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="15">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>30</v>
@@ -2252,7 +2398,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>33</v>
@@ -2279,7 +2425,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2388,88 +2534,88 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
         <v>0</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="20">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
         <v>1</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="C8" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="20">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
         <v>2</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="C9" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="20">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
         <v>4</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="C10" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="20">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>3</v>
-      </c>
-      <c r="B11" s="1" t="s">
+    <row r="11" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
+        <v>3</v>
+      </c>
+      <c r="B11" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="20">
         <v>8</v>
       </c>
     </row>

--- a/Planning/chapter_1_sprint.xlsx
+++ b/Planning/chapter_1_sprint.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Jeff\UnityProjects\journey\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E665D33-C702-4612-8140-CCF393D039B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3C0602-EE89-4307-87C7-895A0DE5FE73}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{01D23D36-369B-4BEE-9D83-54B753740F81}"/>
+    <workbookView xWindow="2025" yWindow="1215" windowWidth="21600" windowHeight="11325" activeTab="4" xr2:uid="{01D23D36-369B-4BEE-9D83-54B753740F81}"/>
   </bookViews>
   <sheets>
     <sheet name="overview" sheetId="1" r:id="rId1"/>
@@ -487,9 +487,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -505,19 +502,22 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1334,87 +1334,87 @@
       <c r="A1" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="28" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="25" t="s">
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="29" t="s">
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="26" t="s">
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26"/>
-      <c r="AG1" s="26"/>
-      <c r="AH1" s="26"/>
-      <c r="AI1" s="26"/>
-      <c r="AJ1" s="22" t="s">
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25"/>
+      <c r="AH1" s="25"/>
+      <c r="AI1" s="25"/>
+      <c r="AJ1" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22"/>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="22"/>
-      <c r="AO1" s="22"/>
-      <c r="AP1" s="22"/>
-      <c r="AQ1" s="26" t="s">
+      <c r="AK1" s="21"/>
+      <c r="AL1" s="21"/>
+      <c r="AM1" s="21"/>
+      <c r="AN1" s="21"/>
+      <c r="AO1" s="21"/>
+      <c r="AP1" s="21"/>
+      <c r="AQ1" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="AR1" s="26"/>
-      <c r="AS1" s="26"/>
-      <c r="AT1" s="26"/>
-      <c r="AU1" s="26"/>
-      <c r="AV1" s="26"/>
-      <c r="AW1" s="26"/>
-      <c r="AX1" s="24" t="s">
+      <c r="AR1" s="25"/>
+      <c r="AS1" s="25"/>
+      <c r="AT1" s="25"/>
+      <c r="AU1" s="25"/>
+      <c r="AV1" s="25"/>
+      <c r="AW1" s="25"/>
+      <c r="AX1" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="AY1" s="24"/>
-      <c r="AZ1" s="24"/>
-      <c r="BA1" s="24"/>
-      <c r="BB1" s="24"/>
-      <c r="BC1" s="24"/>
-      <c r="BD1" s="24"/>
-      <c r="BE1" s="25" t="s">
+      <c r="AY1" s="23"/>
+      <c r="AZ1" s="23"/>
+      <c r="BA1" s="23"/>
+      <c r="BB1" s="23"/>
+      <c r="BC1" s="23"/>
+      <c r="BD1" s="23"/>
+      <c r="BE1" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="BF1" s="25"/>
-      <c r="BG1" s="25"/>
-      <c r="BH1" s="25"/>
-      <c r="BI1" s="21" t="s">
+      <c r="BF1" s="24"/>
+      <c r="BG1" s="24"/>
+      <c r="BH1" s="24"/>
+      <c r="BI1" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="BJ1" s="21"/>
+      <c r="BJ1" s="27"/>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1984,33 +1984,33 @@
       <c r="A5" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="30"/>
+      <c r="C5" s="28"/>
     </row>
     <row r="6" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
     </row>
     <row r="7" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>76</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
     </row>
     <row r="8" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2019,85 +2019,85 @@
       <c r="L8" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="T8" s="23" t="s">
+      <c r="T8" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="U8" s="23"/>
-      <c r="V8" s="23"/>
-      <c r="W8" s="23"/>
-      <c r="X8" s="23"/>
-      <c r="Y8" s="23"/>
-      <c r="Z8" s="23"/>
-      <c r="AA8" s="23"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="22"/>
     </row>
     <row r="9" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>78</v>
       </c>
-      <c r="M9" s="22" t="s">
+      <c r="M9" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22"/>
-      <c r="W9" s="22"/>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="22"/>
-      <c r="Z9" s="22"/>
-      <c r="AA9" s="22"/>
-      <c r="AB9" s="22"/>
-      <c r="AC9" s="22"/>
-      <c r="AD9" s="22"/>
-      <c r="AE9" s="22"/>
-      <c r="AF9" s="22"/>
-      <c r="AG9" s="22"/>
-      <c r="AH9" s="22"/>
-      <c r="AI9" s="22"/>
-      <c r="AJ9" s="22"/>
-      <c r="AK9" s="22"/>
-      <c r="AL9" s="22"/>
-      <c r="AM9" s="22"/>
-      <c r="AN9" s="22"/>
-      <c r="AO9" s="22"/>
-      <c r="AP9" s="22"/>
-      <c r="AQ9" s="22"/>
-      <c r="AR9" s="22"/>
-      <c r="AS9" s="22"/>
-      <c r="AT9" s="22"/>
-      <c r="AU9" s="22"/>
-      <c r="AV9" s="22"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="21"/>
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="21"/>
+      <c r="AE9" s="21"/>
+      <c r="AF9" s="21"/>
+      <c r="AG9" s="21"/>
+      <c r="AH9" s="21"/>
+      <c r="AI9" s="21"/>
+      <c r="AJ9" s="21"/>
+      <c r="AK9" s="21"/>
+      <c r="AL9" s="21"/>
+      <c r="AM9" s="21"/>
+      <c r="AN9" s="21"/>
+      <c r="AO9" s="21"/>
+      <c r="AP9" s="21"/>
+      <c r="AQ9" s="21"/>
+      <c r="AR9" s="21"/>
+      <c r="AS9" s="21"/>
+      <c r="AT9" s="21"/>
+      <c r="AU9" s="21"/>
+      <c r="AV9" s="21"/>
     </row>
     <row r="10" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>79</v>
       </c>
-      <c r="AW10" s="22" t="s">
+      <c r="AW10" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="AX10" s="22"/>
+      <c r="AX10" s="21"/>
     </row>
     <row r="11" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>80</v>
       </c>
-      <c r="AY11" s="22" t="s">
+      <c r="AY11" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="AZ11" s="22"/>
-      <c r="BA11" s="22"/>
-      <c r="BB11" s="22"/>
-      <c r="BC11" s="22"/>
-      <c r="BD11" s="22"/>
-      <c r="BE11" s="22"/>
-      <c r="BF11" s="22"/>
-      <c r="BG11" s="22"/>
-      <c r="BH11" s="22"/>
+      <c r="AZ11" s="21"/>
+      <c r="BA11" s="21"/>
+      <c r="BB11" s="21"/>
+      <c r="BC11" s="21"/>
+      <c r="BD11" s="21"/>
+      <c r="BE11" s="21"/>
+      <c r="BF11" s="21"/>
+      <c r="BG11" s="21"/>
+      <c r="BH11" s="21"/>
     </row>
     <row r="12" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2158,16 +2158,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="BI1:BJ1"/>
+    <mergeCell ref="M9:AV9"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="F7:K7"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="H1:N1"/>
-    <mergeCell ref="O1:U1"/>
-    <mergeCell ref="V1:AB1"/>
-    <mergeCell ref="AC1:AI1"/>
-    <mergeCell ref="BI1:BJ1"/>
-    <mergeCell ref="M9:AV9"/>
     <mergeCell ref="AW10:AX10"/>
     <mergeCell ref="AY11:BH11"/>
     <mergeCell ref="T8:AA8"/>
@@ -2175,6 +2172,9 @@
     <mergeCell ref="BE1:BH1"/>
     <mergeCell ref="AQ1:AW1"/>
     <mergeCell ref="AJ1:AP1"/>
+    <mergeCell ref="O1:U1"/>
+    <mergeCell ref="V1:AB1"/>
+    <mergeCell ref="AC1:AI1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
